--- a/out/CE/falselink/Figori_algorithm_1.xlsx
+++ b/out/CE/falselink/Figori_algorithm_1.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.86729999999999996</v>
+        <v>0.86224999999999996</v>
       </c>
       <c r="B1">
-        <v>0.84555000000000002</v>
+        <v>0.8397</v>
       </c>
       <c r="C1">
+        <v>0.83279999999999998</v>
+      </c>
+      <c r="D1">
+        <v>0.84560000000000002</v>
+      </c>
+      <c r="E1">
+        <v>0.81810000000000005</v>
+      </c>
+      <c r="F1">
+        <v>0.84584999999999999</v>
+      </c>
+      <c r="G1">
+        <v>0.85529999999999995</v>
+      </c>
+      <c r="H1">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="I1">
+        <v>0.8377</v>
+      </c>
+      <c r="J1">
+        <v>0.84489999999999998</v>
+      </c>
+      <c r="K1">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="L1">
         <v>0.84684999999999999</v>
       </c>
-      <c r="D1">
-        <v>0.84040000000000004</v>
-      </c>
-      <c r="E1">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="F1">
-        <v>0.82845000000000002</v>
-      </c>
-      <c r="G1">
-        <v>0.83655000000000002</v>
-      </c>
-      <c r="H1">
-        <v>0.87175000000000002</v>
-      </c>
-      <c r="I1">
-        <v>0.85294999999999999</v>
-      </c>
-      <c r="J1">
-        <v>0.87165000000000004</v>
-      </c>
-      <c r="K1">
-        <v>0.85070000000000001</v>
-      </c>
-      <c r="L1">
-        <v>0.85560000000000003</v>
-      </c>
       <c r="M1">
-        <v>0.85319999999999996</v>
+        <v>0.82040000000000002</v>
       </c>
       <c r="N1">
-        <v>0.83640000000000003</v>
+        <v>0.85670000000000002</v>
       </c>
       <c r="O1">
-        <v>0.87714999999999999</v>
+        <v>0.85045000000000004</v>
       </c>
       <c r="P1">
-        <v>0.84899999999999998</v>
+        <v>0.87419999999999998</v>
       </c>
       <c r="Q1">
-        <v>0.85634999999999994</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="R1">
-        <v>0.85450000000000004</v>
+        <v>0.85734999999999995</v>
       </c>
       <c r="S1">
-        <v>0.85660000000000003</v>
+        <v>0.85060000000000002</v>
       </c>
       <c r="T1">
-        <v>0.85994999999999999</v>
+        <v>0.8407</v>
       </c>
       <c r="U1">
-        <v>0.83704999999999996</v>
+        <v>0.85345000000000004</v>
       </c>
       <c r="V1">
-        <v>0.86109999999999998</v>
+        <v>0.86460000000000004</v>
       </c>
       <c r="W1">
-        <v>0.84609999999999996</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="X1">
-        <v>0.83555000000000001</v>
+        <v>0.8256</v>
       </c>
       <c r="Y1">
-        <v>0.86185</v>
+        <v>0.81850000000000001</v>
       </c>
       <c r="Z1">
-        <v>0.84845000000000004</v>
+        <v>0.86160000000000003</v>
       </c>
       <c r="AA1">
-        <v>0.83545000000000003</v>
+        <v>0.83989999999999998</v>
       </c>
       <c r="AB1">
-        <v>0.82574999999999998</v>
+        <v>0.86019999999999996</v>
       </c>
       <c r="AC1">
-        <v>0.85589999999999999</v>
+        <v>0.86324999999999996</v>
       </c>
       <c r="AD1">
-        <v>0.80735000000000001</v>
+        <v>0.83494999999999997</v>
       </c>
       <c r="AE1">
-        <v>0.82494999999999996</v>
+        <v>0.84130000000000005</v>
       </c>
       <c r="AF1">
-        <v>0.85094999999999998</v>
+        <v>0.85394999999999999</v>
       </c>
       <c r="AG1">
-        <v>0.8629</v>
+        <v>0.86970000000000003</v>
       </c>
       <c r="AH1">
-        <v>0.88080000000000003</v>
+        <v>0.85255000000000003</v>
       </c>
       <c r="AI1">
-        <v>0.86595</v>
+        <v>0.85755000000000003</v>
       </c>
       <c r="AJ1">
-        <v>0.84309999999999996</v>
+        <v>0.84009999999999996</v>
       </c>
       <c r="AK1">
-        <v>0.85385</v>
+        <v>0.83304999999999996</v>
       </c>
       <c r="AL1">
-        <v>0.83135000000000003</v>
+        <v>0.83919999999999995</v>
       </c>
       <c r="AM1">
-        <v>0.86655000000000004</v>
+        <v>0.87780000000000002</v>
       </c>
       <c r="AN1">
-        <v>0.84909999999999997</v>
+        <v>0.86265000000000003</v>
       </c>
       <c r="AO1">
-        <v>0.87095</v>
+        <v>0.86070000000000002</v>
       </c>
       <c r="AP1">
-        <v>0.84545000000000003</v>
+        <v>0.8528</v>
       </c>
       <c r="AQ1">
-        <v>0.87709999999999999</v>
+        <v>0.85970000000000002</v>
       </c>
       <c r="AR1">
-        <v>0.83784999999999998</v>
+        <v>0.84740000000000004</v>
       </c>
       <c r="AS1">
-        <v>0.87744999999999995</v>
+        <v>0.85529999999999995</v>
       </c>
       <c r="AT1">
-        <v>0.84899999999999998</v>
+        <v>0.85189999999999999</v>
       </c>
       <c r="AU1">
-        <v>0.86104999999999998</v>
+        <v>0.84984999999999999</v>
       </c>
       <c r="AV1">
-        <v>0.85955000000000004</v>
+        <v>0.88224999999999998</v>
       </c>
       <c r="AW1">
-        <v>0.87044999999999995</v>
+        <v>0.8448</v>
       </c>
       <c r="AX1">
-        <v>0.84524999999999995</v>
+        <v>0.85509999999999997</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.85770000000000002</v>
+        <v>0.83550000000000002</v>
       </c>
       <c r="B2">
-        <v>0.82535000000000003</v>
+        <v>0.82230000000000003</v>
       </c>
       <c r="C2">
-        <v>0.8407</v>
+        <v>0.82464999999999999</v>
       </c>
       <c r="D2">
-        <v>0.83079999999999998</v>
+        <v>0.84045000000000003</v>
       </c>
       <c r="E2">
-        <v>0.84499999999999997</v>
+        <v>0.80569999999999997</v>
       </c>
       <c r="F2">
-        <v>0.82255</v>
+        <v>0.84284999999999999</v>
       </c>
       <c r="G2">
-        <v>0.81359999999999999</v>
+        <v>0.83555000000000001</v>
       </c>
       <c r="H2">
-        <v>0.84524999999999995</v>
+        <v>0.84935000000000005</v>
       </c>
       <c r="I2">
-        <v>0.84314999999999996</v>
+        <v>0.83040000000000003</v>
       </c>
       <c r="J2">
-        <v>0.85909999999999997</v>
+        <v>0.84</v>
       </c>
       <c r="K2">
-        <v>0.85509999999999997</v>
+        <v>0.85250000000000004</v>
       </c>
       <c r="L2">
-        <v>0.85194999999999999</v>
+        <v>0.82809999999999995</v>
       </c>
       <c r="M2">
-        <v>0.84775</v>
+        <v>0.80820000000000003</v>
       </c>
       <c r="N2">
-        <v>0.81869999999999998</v>
+        <v>0.84770000000000001</v>
       </c>
       <c r="O2">
-        <v>0.86934999999999996</v>
+        <v>0.84824999999999995</v>
       </c>
       <c r="P2">
-        <v>0.82899999999999996</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.83855000000000002</v>
+        <v>0.82550000000000001</v>
       </c>
       <c r="R2">
-        <v>0.84209999999999996</v>
+        <v>0.85755000000000003</v>
       </c>
       <c r="S2">
-        <v>0.84440000000000004</v>
+        <v>0.84504999999999997</v>
       </c>
       <c r="T2">
-        <v>0.83779999999999999</v>
+        <v>0.82525000000000004</v>
       </c>
       <c r="U2">
-        <v>0.84189999999999998</v>
+        <v>0.84704999999999997</v>
       </c>
       <c r="V2">
-        <v>0.85555000000000003</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="W2">
-        <v>0.82735000000000003</v>
+        <v>0.83845000000000003</v>
       </c>
       <c r="X2">
-        <v>0.83089999999999997</v>
+        <v>0.82774999999999999</v>
       </c>
       <c r="Y2">
-        <v>0.83765000000000001</v>
+        <v>0.81035000000000001</v>
       </c>
       <c r="Z2">
         <v>0.8548</v>
       </c>
       <c r="AA2">
-        <v>0.83004999999999995</v>
+        <v>0.82435000000000003</v>
       </c>
       <c r="AB2">
-        <v>0.80864999999999998</v>
+        <v>0.83455000000000001</v>
       </c>
       <c r="AC2">
-        <v>0.85255000000000003</v>
+        <v>0.84355000000000002</v>
       </c>
       <c r="AD2">
-        <v>0.78280000000000005</v>
+        <v>0.8145</v>
       </c>
       <c r="AE2">
-        <v>0.81205000000000005</v>
+        <v>0.81835000000000002</v>
       </c>
       <c r="AF2">
-        <v>0.85585</v>
+        <v>0.83809999999999996</v>
       </c>
       <c r="AG2">
-        <v>0.83599999999999997</v>
+        <v>0.84709999999999996</v>
       </c>
       <c r="AH2">
-        <v>0.87165000000000004</v>
+        <v>0.8397</v>
       </c>
       <c r="AI2">
-        <v>0.84860000000000002</v>
+        <v>0.84394999999999998</v>
       </c>
       <c r="AJ2">
-        <v>0.82855000000000001</v>
+        <v>0.82310000000000005</v>
       </c>
       <c r="AK2">
-        <v>0.82930000000000004</v>
+        <v>0.81855</v>
       </c>
       <c r="AL2">
-        <v>0.80884999999999996</v>
+        <v>0.82565</v>
       </c>
       <c r="AM2">
-        <v>0.85035000000000005</v>
+        <v>0.8639</v>
       </c>
       <c r="AN2">
-        <v>0.83709999999999996</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="AO2">
-        <v>0.85009999999999997</v>
+        <v>0.85104999999999997</v>
       </c>
       <c r="AP2">
-        <v>0.84060000000000001</v>
+        <v>0.8377</v>
       </c>
       <c r="AQ2">
-        <v>0.85589999999999999</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="AR2">
-        <v>0.84635000000000005</v>
+        <v>0.84870000000000001</v>
       </c>
       <c r="AS2">
-        <v>0.84975000000000001</v>
+        <v>0.85814999999999997</v>
       </c>
       <c r="AT2">
-        <v>0.8417</v>
+        <v>0.82694999999999996</v>
       </c>
       <c r="AU2">
-        <v>0.84370000000000001</v>
+        <v>0.84035000000000004</v>
       </c>
       <c r="AV2">
-        <v>0.84660000000000002</v>
+        <v>0.87875000000000003</v>
       </c>
       <c r="AW2">
-        <v>0.84889999999999999</v>
+        <v>0.81855</v>
       </c>
       <c r="AX2">
-        <v>0.82930000000000004</v>
+        <v>0.83875</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.83765000000000001</v>
+        <v>0.7923</v>
       </c>
       <c r="B3">
-        <v>0.80010000000000003</v>
+        <v>0.80015000000000003</v>
       </c>
       <c r="C3">
-        <v>0.82555000000000001</v>
+        <v>0.79615000000000002</v>
       </c>
       <c r="D3">
-        <v>0.79844999999999999</v>
+        <v>0.81555</v>
       </c>
       <c r="E3">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.83174999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.81594999999999995</v>
+      </c>
+      <c r="H3">
+        <v>0.81964999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.80935000000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.82120000000000004</v>
+      </c>
+      <c r="K3">
+        <v>0.82484999999999997</v>
+      </c>
+      <c r="L3">
+        <v>0.81074999999999997</v>
+      </c>
+      <c r="M3">
+        <v>0.7833</v>
+      </c>
+      <c r="N3">
+        <v>0.81964999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="P3">
+        <v>0.84514999999999996</v>
+      </c>
+      <c r="Q3">
+        <v>0.80669999999999997</v>
+      </c>
+      <c r="R3">
+        <v>0.84445000000000003</v>
+      </c>
+      <c r="S3">
+        <v>0.82984999999999998</v>
+      </c>
+      <c r="T3">
+        <v>0.81425000000000003</v>
+      </c>
+      <c r="U3">
+        <v>0.82784999999999997</v>
+      </c>
+      <c r="V3">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="W3">
         <v>0.82194999999999996</v>
       </c>
-      <c r="F3">
-        <v>0.78034999999999999</v>
-      </c>
-      <c r="G3">
-        <v>0.79349999999999998</v>
-      </c>
-      <c r="H3">
-        <v>0.81194999999999995</v>
-      </c>
-      <c r="I3">
-        <v>0.82084999999999997</v>
-      </c>
-      <c r="J3">
-        <v>0.83725000000000005</v>
-      </c>
-      <c r="K3">
-        <v>0.83465</v>
-      </c>
-      <c r="L3">
-        <v>0.81720000000000004</v>
-      </c>
-      <c r="M3">
-        <v>0.81845000000000001</v>
-      </c>
-      <c r="N3">
-        <v>0.79830000000000001</v>
-      </c>
-      <c r="O3">
-        <v>0.84945000000000004</v>
-      </c>
-      <c r="P3">
-        <v>0.80859999999999999</v>
-      </c>
-      <c r="Q3">
-        <v>0.81635000000000002</v>
-      </c>
-      <c r="R3">
-        <v>0.82479999999999998</v>
-      </c>
-      <c r="S3">
-        <v>0.81369999999999998</v>
-      </c>
-      <c r="T3">
-        <v>0.80935000000000001</v>
-      </c>
-      <c r="U3">
-        <v>0.83325000000000005</v>
-      </c>
-      <c r="V3">
-        <v>0.82184999999999997</v>
-      </c>
-      <c r="W3">
-        <v>0.79905000000000004</v>
-      </c>
       <c r="X3">
-        <v>0.81274999999999997</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="Y3">
-        <v>0.79735</v>
+        <v>0.78815000000000002</v>
       </c>
       <c r="Z3">
-        <v>0.82274999999999998</v>
+        <v>0.82104999999999995</v>
       </c>
       <c r="AA3">
-        <v>0.80254999999999999</v>
+        <v>0.79379999999999995</v>
       </c>
       <c r="AB3">
-        <v>0.77995000000000003</v>
+        <v>0.82825000000000004</v>
       </c>
       <c r="AC3">
-        <v>0.82079999999999997</v>
+        <v>0.81415000000000004</v>
       </c>
       <c r="AD3">
-        <v>0.77239999999999998</v>
+        <v>0.78920000000000001</v>
       </c>
       <c r="AE3">
-        <v>0.80725000000000002</v>
+        <v>0.80364999999999998</v>
       </c>
       <c r="AF3">
-        <v>0.81435000000000002</v>
+        <v>0.81494999999999995</v>
       </c>
       <c r="AG3">
-        <v>0.81125000000000003</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="AH3">
-        <v>0.84084999999999999</v>
+        <v>0.82279999999999998</v>
       </c>
       <c r="AI3">
-        <v>0.81974999999999998</v>
+        <v>0.83</v>
       </c>
       <c r="AJ3">
-        <v>0.81415000000000004</v>
+        <v>0.79625000000000001</v>
       </c>
       <c r="AK3">
-        <v>0.82255</v>
+        <v>0.78859999999999997</v>
       </c>
       <c r="AL3">
-        <v>0.79349999999999998</v>
+        <v>0.82440000000000002</v>
       </c>
       <c r="AM3">
-        <v>0.82804999999999995</v>
+        <v>0.84260000000000002</v>
       </c>
       <c r="AN3">
-        <v>0.81794999999999995</v>
+        <v>0.84119999999999995</v>
       </c>
       <c r="AO3">
-        <v>0.82410000000000005</v>
+        <v>0.83350000000000002</v>
       </c>
       <c r="AP3">
-        <v>0.80010000000000003</v>
+        <v>0.80910000000000004</v>
       </c>
       <c r="AQ3">
-        <v>0.83394999999999997</v>
+        <v>0.83494999999999997</v>
       </c>
       <c r="AR3">
-        <v>0.81679999999999997</v>
+        <v>0.81820000000000004</v>
       </c>
       <c r="AS3">
-        <v>0.82294999999999996</v>
+        <v>0.81684999999999997</v>
       </c>
       <c r="AT3">
-        <v>0.81855</v>
+        <v>0.79415000000000002</v>
       </c>
       <c r="AU3">
-        <v>0.82679999999999998</v>
+        <v>0.79674999999999996</v>
       </c>
       <c r="AV3">
-        <v>0.81794999999999995</v>
+        <v>0.85475000000000001</v>
       </c>
       <c r="AW3">
-        <v>0.81645000000000001</v>
+        <v>0.80089999999999995</v>
       </c>
       <c r="AX3">
-        <v>0.80030000000000001</v>
+        <v>0.81440000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.80330000000000001</v>
+        <v>0.76454999999999995</v>
       </c>
       <c r="B4">
-        <v>0.76980000000000004</v>
+        <v>0.76765000000000005</v>
       </c>
       <c r="C4">
-        <v>0.78025</v>
+        <v>0.75134999999999996</v>
       </c>
       <c r="D4">
-        <v>0.77815000000000001</v>
+        <v>0.77954999999999997</v>
       </c>
       <c r="E4">
-        <v>0.79035</v>
+        <v>0.74080000000000001</v>
       </c>
       <c r="F4">
-        <v>0.76615</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="G4">
-        <v>0.76185000000000003</v>
+        <v>0.77844999999999998</v>
       </c>
       <c r="H4">
-        <v>0.78075000000000006</v>
+        <v>0.79469999999999996</v>
       </c>
       <c r="I4">
-        <v>0.78600000000000003</v>
+        <v>0.77270000000000005</v>
       </c>
       <c r="J4">
-        <v>0.81464999999999999</v>
+        <v>0.79005000000000003</v>
       </c>
       <c r="K4">
-        <v>0.80405000000000004</v>
+        <v>0.79474999999999996</v>
       </c>
       <c r="L4">
-        <v>0.78154999999999997</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="M4">
-        <v>0.79</v>
+        <v>0.75690000000000002</v>
       </c>
       <c r="N4">
-        <v>0.77105000000000001</v>
+        <v>0.78615000000000002</v>
       </c>
       <c r="O4">
-        <v>0.81769999999999998</v>
+        <v>0.80820000000000003</v>
       </c>
       <c r="P4">
-        <v>0.76705000000000001</v>
+        <v>0.81045</v>
       </c>
       <c r="Q4">
+        <v>0.76739999999999997</v>
+      </c>
+      <c r="R4">
+        <v>0.80230000000000001</v>
+      </c>
+      <c r="S4">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="T4">
+        <v>0.77315</v>
+      </c>
+      <c r="U4">
+        <v>0.80054999999999998</v>
+      </c>
+      <c r="V4">
+        <v>0.79174999999999995</v>
+      </c>
+      <c r="W4">
         <v>0.80035000000000001</v>
       </c>
-      <c r="R4">
-        <v>0.78490000000000004</v>
-      </c>
-      <c r="S4">
-        <v>0.79995000000000005</v>
-      </c>
-      <c r="T4">
-        <v>0.77695000000000003</v>
-      </c>
-      <c r="U4">
-        <v>0.7984</v>
-      </c>
-      <c r="V4">
-        <v>0.76944999999999997</v>
-      </c>
-      <c r="W4">
-        <v>0.75570000000000004</v>
-      </c>
       <c r="X4">
-        <v>0.76315</v>
+        <v>0.78195000000000003</v>
       </c>
       <c r="Y4">
-        <v>0.76095000000000002</v>
+        <v>0.75309999999999999</v>
       </c>
       <c r="Z4">
-        <v>0.78569999999999995</v>
+        <v>0.78564999999999996</v>
       </c>
       <c r="AA4">
-        <v>0.76744999999999997</v>
+        <v>0.76754999999999995</v>
       </c>
       <c r="AB4">
-        <v>0.76085000000000003</v>
+        <v>0.81640000000000001</v>
       </c>
       <c r="AC4">
-        <v>0.79339999999999999</v>
+        <v>0.79190000000000005</v>
       </c>
       <c r="AD4">
-        <v>0.75</v>
+        <v>0.75914999999999999</v>
       </c>
       <c r="AE4">
-        <v>0.78685000000000005</v>
+        <v>0.78469999999999995</v>
       </c>
       <c r="AF4">
-        <v>0.79254999999999998</v>
+        <v>0.7772</v>
       </c>
       <c r="AG4">
-        <v>0.77905000000000002</v>
+        <v>0.76570000000000005</v>
       </c>
       <c r="AH4">
-        <v>0.82774999999999999</v>
+        <v>0.78385000000000005</v>
       </c>
       <c r="AI4">
-        <v>0.78034999999999999</v>
+        <v>0.78764999999999996</v>
       </c>
       <c r="AJ4">
-        <v>0.79405000000000003</v>
+        <v>0.76224999999999998</v>
       </c>
       <c r="AK4">
-        <v>0.78369999999999995</v>
+        <v>0.77539999999999998</v>
       </c>
       <c r="AL4">
-        <v>0.76395000000000002</v>
+        <v>0.78610000000000002</v>
       </c>
       <c r="AM4">
-        <v>0.80125000000000002</v>
+        <v>0.82830000000000004</v>
       </c>
       <c r="AN4">
-        <v>0.7782</v>
+        <v>0.79105000000000003</v>
       </c>
       <c r="AO4">
-        <v>0.79725000000000001</v>
+        <v>0.78915000000000002</v>
       </c>
       <c r="AP4">
-        <v>0.78935</v>
+        <v>0.77654999999999996</v>
       </c>
       <c r="AQ4">
-        <v>0.8014</v>
+        <v>0.79984999999999995</v>
       </c>
       <c r="AR4">
-        <v>0.7712</v>
+        <v>0.77375000000000005</v>
       </c>
       <c r="AS4">
-        <v>0.76385000000000003</v>
+        <v>0.77625</v>
       </c>
       <c r="AT4">
-        <v>0.78449999999999998</v>
+        <v>0.76224999999999998</v>
       </c>
       <c r="AU4">
-        <v>0.7944</v>
+        <v>0.78234999999999999</v>
       </c>
       <c r="AV4">
-        <v>0.8004</v>
+        <v>0.80859999999999999</v>
       </c>
       <c r="AW4">
-        <v>0.78454999999999997</v>
+        <v>0.76224999999999998</v>
       </c>
       <c r="AX4">
-        <v>0.76895000000000002</v>
+        <v>0.75970000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.7752</v>
+        <v>0.73109999999999997</v>
       </c>
       <c r="B5">
-        <v>0.71924999999999994</v>
+        <v>0.73145000000000004</v>
       </c>
       <c r="C5">
-        <v>0.74214999999999998</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="D5">
-        <v>0.75244999999999995</v>
+        <v>0.74675000000000002</v>
       </c>
       <c r="E5">
-        <v>0.76244999999999996</v>
+        <v>0.71765000000000001</v>
       </c>
       <c r="F5">
-        <v>0.74270000000000003</v>
+        <v>0.76319999999999999</v>
       </c>
       <c r="G5">
-        <v>0.70745000000000002</v>
+        <v>0.73745000000000005</v>
       </c>
       <c r="H5">
-        <v>0.74119999999999997</v>
+        <v>0.76044999999999996</v>
       </c>
       <c r="I5">
-        <v>0.75665000000000004</v>
+        <v>0.74539999999999995</v>
       </c>
       <c r="J5">
-        <v>0.76715</v>
+        <v>0.75539999999999996</v>
       </c>
       <c r="K5">
-        <v>0.76815</v>
+        <v>0.73570000000000002</v>
       </c>
       <c r="L5">
-        <v>0.74634999999999996</v>
+        <v>0.74360000000000004</v>
       </c>
       <c r="M5">
-        <v>0.75719999999999998</v>
+        <v>0.71179999999999999</v>
       </c>
       <c r="N5">
-        <v>0.74085000000000001</v>
+        <v>0.73824999999999996</v>
       </c>
       <c r="O5">
-        <v>0.76805000000000001</v>
+        <v>0.78264999999999996</v>
       </c>
       <c r="P5">
-        <v>0.74624999999999997</v>
+        <v>0.7823</v>
       </c>
       <c r="Q5">
-        <v>0.76365000000000005</v>
+        <v>0.74029999999999996</v>
       </c>
       <c r="R5">
-        <v>0.75965000000000005</v>
+        <v>0.76739999999999997</v>
       </c>
       <c r="S5">
-        <v>0.77759999999999996</v>
+        <v>0.74934999999999996</v>
       </c>
       <c r="T5">
-        <v>0.72740000000000005</v>
+        <v>0.74124999999999996</v>
       </c>
       <c r="U5">
-        <v>0.77780000000000005</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="V5">
-        <v>0.73199999999999998</v>
+        <v>0.75185000000000002</v>
       </c>
       <c r="W5">
-        <v>0.72899999999999998</v>
+        <v>0.76875000000000004</v>
       </c>
       <c r="X5">
-        <v>0.73429999999999995</v>
+        <v>0.73409999999999997</v>
       </c>
       <c r="Y5">
-        <v>0.72899999999999998</v>
+        <v>0.72060000000000002</v>
       </c>
       <c r="Z5">
-        <v>0.74804999999999999</v>
+        <v>0.75734999999999997</v>
       </c>
       <c r="AA5">
-        <v>0.72509999999999997</v>
+        <v>0.749</v>
       </c>
       <c r="AB5">
-        <v>0.75014999999999998</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="AC5">
-        <v>0.74550000000000005</v>
+        <v>0.76605000000000001</v>
       </c>
       <c r="AD5">
-        <v>0.71655000000000002</v>
+        <v>0.70309999999999995</v>
       </c>
       <c r="AE5">
-        <v>0.75319999999999998</v>
+        <v>0.75670000000000004</v>
       </c>
       <c r="AF5">
-        <v>0.75680000000000003</v>
+        <v>0.72724999999999995</v>
       </c>
       <c r="AG5">
-        <v>0.75229999999999997</v>
+        <v>0.72119999999999995</v>
       </c>
       <c r="AH5">
-        <v>0.7843</v>
+        <v>0.73304999999999998</v>
       </c>
       <c r="AI5">
-        <v>0.76529999999999998</v>
+        <v>0.76639999999999997</v>
       </c>
       <c r="AJ5">
-        <v>0.75349999999999995</v>
+        <v>0.73560000000000003</v>
       </c>
       <c r="AK5">
-        <v>0.76034999999999997</v>
+        <v>0.74134999999999995</v>
       </c>
       <c r="AL5">
-        <v>0.74139999999999995</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="AM5">
-        <v>0.75170000000000003</v>
+        <v>0.7883</v>
       </c>
       <c r="AN5">
-        <v>0.74775000000000003</v>
+        <v>0.74890000000000001</v>
       </c>
       <c r="AO5">
-        <v>0.76390000000000002</v>
+        <v>0.76829999999999998</v>
       </c>
       <c r="AP5">
-        <v>0.753</v>
+        <v>0.75475000000000003</v>
       </c>
       <c r="AQ5">
-        <v>0.77270000000000005</v>
+        <v>0.76019999999999999</v>
       </c>
       <c r="AR5">
-        <v>0.76519999999999999</v>
+        <v>0.74729999999999996</v>
       </c>
       <c r="AS5">
-        <v>0.73660000000000003</v>
+        <v>0.73914999999999997</v>
       </c>
       <c r="AT5">
-        <v>0.74950000000000006</v>
+        <v>0.71879999999999999</v>
       </c>
       <c r="AU5">
-        <v>0.77270000000000005</v>
+        <v>0.74670000000000003</v>
       </c>
       <c r="AV5">
-        <v>0.75865000000000005</v>
+        <v>0.78280000000000005</v>
       </c>
       <c r="AW5">
-        <v>0.73895</v>
+        <v>0.73865000000000003</v>
       </c>
       <c r="AX5">
-        <v>0.74714999999999998</v>
+        <v>0.74150000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.74045000000000005</v>
+        <v>0.70220000000000005</v>
       </c>
       <c r="B6">
-        <v>0.73109999999999997</v>
+        <v>0.69215000000000004</v>
       </c>
       <c r="C6">
-        <v>0.72940000000000005</v>
+        <v>0.70120000000000005</v>
       </c>
       <c r="D6">
-        <v>0.72714999999999996</v>
+        <v>0.71684999999999999</v>
       </c>
       <c r="E6">
-        <v>0.752</v>
+        <v>0.68874999999999997</v>
       </c>
       <c r="F6">
-        <v>0.72470000000000001</v>
+        <v>0.73609999999999998</v>
       </c>
       <c r="G6">
-        <v>0.68</v>
+        <v>0.71340000000000003</v>
       </c>
       <c r="H6">
-        <v>0.72024999999999995</v>
+        <v>0.72845000000000004</v>
       </c>
       <c r="I6">
-        <v>0.70650000000000002</v>
+        <v>0.69140000000000001</v>
       </c>
       <c r="J6">
-        <v>0.73850000000000005</v>
+        <v>0.70725000000000005</v>
       </c>
       <c r="K6">
-        <v>0.74555000000000005</v>
+        <v>0.71440000000000003</v>
       </c>
       <c r="L6">
-        <v>0.74450000000000005</v>
+        <v>0.71450000000000002</v>
       </c>
       <c r="M6">
+        <v>0.71094999999999997</v>
+      </c>
+      <c r="N6">
         <v>0.72230000000000005</v>
       </c>
-      <c r="N6">
-        <v>0.71609999999999996</v>
-      </c>
       <c r="O6">
-        <v>0.74744999999999995</v>
+        <v>0.76305000000000001</v>
       </c>
       <c r="P6">
-        <v>0.70589999999999997</v>
+        <v>0.74409999999999998</v>
       </c>
       <c r="Q6">
+        <v>0.72570000000000001</v>
+      </c>
+      <c r="R6">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="S6">
+        <v>0.72255000000000003</v>
+      </c>
+      <c r="T6">
+        <v>0.70440000000000003</v>
+      </c>
+      <c r="U6">
+        <v>0.74755000000000005</v>
+      </c>
+      <c r="V6">
+        <v>0.74065000000000003</v>
+      </c>
+      <c r="W6">
+        <v>0.72809999999999997</v>
+      </c>
+      <c r="X6">
+        <v>0.68515000000000004</v>
+      </c>
+      <c r="Y6">
+        <v>0.69935000000000003</v>
+      </c>
+      <c r="Z6">
+        <v>0.73224999999999996</v>
+      </c>
+      <c r="AA6">
+        <v>0.72865000000000002</v>
+      </c>
+      <c r="AB6">
+        <v>0.71745000000000003</v>
+      </c>
+      <c r="AC6">
+        <v>0.75119999999999998</v>
+      </c>
+      <c r="AD6">
+        <v>0.69215000000000004</v>
+      </c>
+      <c r="AE6">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="AF6">
+        <v>0.69245000000000001</v>
+      </c>
+      <c r="AG6">
+        <v>0.71340000000000003</v>
+      </c>
+      <c r="AH6">
+        <v>0.73129999999999995</v>
+      </c>
+      <c r="AI6">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="AJ6">
+        <v>0.69484999999999997</v>
+      </c>
+      <c r="AK6">
+        <v>0.71760000000000002</v>
+      </c>
+      <c r="AL6">
+        <v>0.72804999999999997</v>
+      </c>
+      <c r="AM6">
+        <v>0.75124999999999997</v>
+      </c>
+      <c r="AN6">
+        <v>0.70015000000000005</v>
+      </c>
+      <c r="AO6">
+        <v>0.72204999999999997</v>
+      </c>
+      <c r="AP6">
+        <v>0.70989999999999998</v>
+      </c>
+      <c r="AQ6">
+        <v>0.73370000000000002</v>
+      </c>
+      <c r="AR6">
+        <v>0.72735000000000005</v>
+      </c>
+      <c r="AS6">
+        <v>0.71604999999999996</v>
+      </c>
+      <c r="AT6">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="AU6">
+        <v>0.69845000000000002</v>
+      </c>
+      <c r="AV6">
         <v>0.74014999999999997</v>
       </c>
-      <c r="R6">
-        <v>0.73224999999999996</v>
-      </c>
-      <c r="S6">
-        <v>0.74885000000000002</v>
-      </c>
-      <c r="T6">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="U6">
-        <v>0.74575000000000002</v>
-      </c>
-      <c r="V6">
-        <v>0.72394999999999998</v>
-      </c>
-      <c r="W6">
-        <v>0.68269999999999997</v>
-      </c>
-      <c r="X6">
-        <v>0.70040000000000002</v>
-      </c>
-      <c r="Y6">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="Z6">
-        <v>0.73004999999999998</v>
-      </c>
-      <c r="AA6">
-        <v>0.70860000000000001</v>
-      </c>
-      <c r="AB6">
-        <v>0.73124999999999996</v>
-      </c>
-      <c r="AC6">
-        <v>0.71450000000000002</v>
-      </c>
-      <c r="AD6">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="AE6">
-        <v>0.70284999999999997</v>
-      </c>
-      <c r="AF6">
-        <v>0.72070000000000001</v>
-      </c>
-      <c r="AG6">
-        <v>0.73460000000000003</v>
-      </c>
-      <c r="AH6">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="AI6">
-        <v>0.75639999999999996</v>
-      </c>
-      <c r="AJ6">
-        <v>0.73155000000000003</v>
-      </c>
-      <c r="AK6">
-        <v>0.73089999999999999</v>
-      </c>
-      <c r="AL6">
-        <v>0.70209999999999995</v>
-      </c>
-      <c r="AM6">
-        <v>0.72789999999999999</v>
-      </c>
-      <c r="AN6">
-        <v>0.72370000000000001</v>
-      </c>
-      <c r="AO6">
-        <v>0.72175</v>
-      </c>
-      <c r="AP6">
-        <v>0.70679999999999998</v>
-      </c>
-      <c r="AQ6">
-        <v>0.73570000000000002</v>
-      </c>
-      <c r="AR6">
-        <v>0.72694999999999999</v>
-      </c>
-      <c r="AS6">
-        <v>0.69184999999999997</v>
-      </c>
-      <c r="AT6">
-        <v>0.71930000000000005</v>
-      </c>
-      <c r="AU6">
-        <v>0.71394999999999997</v>
-      </c>
-      <c r="AV6">
-        <v>0.75329999999999997</v>
-      </c>
       <c r="AW6">
-        <v>0.72014999999999996</v>
+        <v>0.71014999999999995</v>
       </c>
       <c r="AX6">
-        <v>0.72194999999999998</v>
+        <v>0.73114999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.71240000000000003</v>
+        <v>0.67474999999999996</v>
       </c>
       <c r="B7">
-        <v>0.68855</v>
+        <v>0.68294999999999995</v>
       </c>
       <c r="C7">
-        <v>0.70404999999999995</v>
+        <v>0.68084999999999996</v>
       </c>
       <c r="D7">
-        <v>0.71140000000000003</v>
+        <v>0.70374999999999999</v>
       </c>
       <c r="E7">
-        <v>0.70914999999999995</v>
+        <v>0.6331</v>
       </c>
       <c r="F7">
-        <v>0.71130000000000004</v>
+        <v>0.72540000000000004</v>
       </c>
       <c r="G7">
-        <v>0.66005000000000003</v>
+        <v>0.67369999999999997</v>
       </c>
       <c r="H7">
-        <v>0.68120000000000003</v>
+        <v>0.72535000000000005</v>
       </c>
       <c r="I7">
-        <v>0.69055</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="J7">
-        <v>0.71304999999999996</v>
+        <v>0.67969999999999997</v>
       </c>
       <c r="K7">
-        <v>0.70669999999999999</v>
+        <v>0.67989999999999995</v>
       </c>
       <c r="L7">
-        <v>0.70665</v>
+        <v>0.69920000000000004</v>
       </c>
       <c r="M7">
-        <v>0.71294999999999997</v>
+        <v>0.67374999999999996</v>
       </c>
       <c r="N7">
-        <v>0.71235000000000004</v>
+        <v>0.69340000000000002</v>
       </c>
       <c r="O7">
-        <v>0.7238</v>
+        <v>0.72870000000000001</v>
       </c>
       <c r="P7">
-        <v>0.69335000000000002</v>
+        <v>0.71274999999999999</v>
       </c>
       <c r="Q7">
-        <v>0.70574999999999999</v>
+        <v>0.69020000000000004</v>
       </c>
       <c r="R7">
-        <v>0.71050000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="S7">
-        <v>0.70935000000000004</v>
+        <v>0.69889999999999997</v>
       </c>
       <c r="T7">
-        <v>0.69784999999999997</v>
+        <v>0.68369999999999997</v>
       </c>
       <c r="U7">
+        <v>0.73114999999999997</v>
+      </c>
+      <c r="V7">
+        <v>0.70340000000000003</v>
+      </c>
+      <c r="W7">
         <v>0.72894999999999999</v>
       </c>
-      <c r="V7">
-        <v>0.68845000000000001</v>
-      </c>
-      <c r="W7">
-        <v>0.66349999999999998</v>
-      </c>
       <c r="X7">
-        <v>0.67974999999999997</v>
+        <v>0.67935000000000001</v>
       </c>
       <c r="Y7">
-        <v>0.68720000000000003</v>
+        <v>0.67754999999999999</v>
       </c>
       <c r="Z7">
-        <v>0.69864999999999999</v>
+        <v>0.70825000000000005</v>
       </c>
       <c r="AA7">
-        <v>0.69894999999999996</v>
+        <v>0.71614999999999995</v>
       </c>
       <c r="AB7">
-        <v>0.70750000000000002</v>
+        <v>0.68174999999999997</v>
       </c>
       <c r="AC7">
-        <v>0.69655</v>
+        <v>0.73240000000000005</v>
       </c>
       <c r="AD7">
-        <v>0.67874999999999996</v>
+        <v>0.63829999999999998</v>
       </c>
       <c r="AE7">
-        <v>0.70209999999999995</v>
+        <v>0.71335000000000004</v>
       </c>
       <c r="AF7">
-        <v>0.69210000000000005</v>
+        <v>0.66995000000000005</v>
       </c>
       <c r="AG7">
-        <v>0.69674999999999998</v>
+        <v>0.69955000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.72145000000000004</v>
+        <v>0.71640000000000004</v>
       </c>
       <c r="AI7">
-        <v>0.73524999999999996</v>
+        <v>0.69884999999999997</v>
       </c>
       <c r="AJ7">
-        <v>0.69794999999999996</v>
+        <v>0.68364999999999998</v>
       </c>
       <c r="AK7">
-        <v>0.69025000000000003</v>
+        <v>0.70204999999999995</v>
       </c>
       <c r="AL7">
-        <v>0.69255</v>
+        <v>0.71245000000000003</v>
       </c>
       <c r="AM7">
-        <v>0.70469999999999999</v>
+        <v>0.7389</v>
       </c>
       <c r="AN7">
-        <v>0.69450000000000001</v>
+        <v>0.66935</v>
       </c>
       <c r="AO7">
-        <v>0.68764999999999998</v>
+        <v>0.71279999999999999</v>
       </c>
       <c r="AP7">
-        <v>0.68515000000000004</v>
+        <v>0.68894999999999995</v>
       </c>
       <c r="AQ7">
-        <v>0.71060000000000001</v>
+        <v>0.69535000000000002</v>
       </c>
       <c r="AR7">
-        <v>0.70989999999999998</v>
+        <v>0.69069999999999998</v>
       </c>
       <c r="AS7">
-        <v>0.67230000000000001</v>
+        <v>0.69574999999999998</v>
       </c>
       <c r="AT7">
-        <v>0.71635000000000004</v>
+        <v>0.68164999999999998</v>
       </c>
       <c r="AU7">
-        <v>0.69645000000000001</v>
+        <v>0.67784999999999995</v>
       </c>
       <c r="AV7">
-        <v>0.73855000000000004</v>
+        <v>0.70335000000000003</v>
       </c>
       <c r="AW7">
-        <v>0.69289999999999996</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="AX7">
-        <v>0.70215000000000005</v>
+        <v>0.70165</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.69635000000000002</v>
+        <v>0.66125</v>
       </c>
       <c r="B8">
-        <v>0.64234999999999998</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="C8">
-        <v>0.6976</v>
+        <v>0.68179999999999996</v>
       </c>
       <c r="D8">
-        <v>0.69384999999999997</v>
+        <v>0.67095000000000005</v>
       </c>
       <c r="E8">
-        <v>0.68679999999999997</v>
+        <v>0.62639999999999996</v>
       </c>
       <c r="F8">
-        <v>0.66735</v>
+        <v>0.70669999999999999</v>
       </c>
       <c r="G8">
-        <v>0.64829999999999999</v>
+        <v>0.67479999999999996</v>
       </c>
       <c r="H8">
-        <v>0.66339999999999999</v>
+        <v>0.70435000000000003</v>
       </c>
       <c r="I8">
-        <v>0.67415000000000003</v>
+        <v>0.6552</v>
       </c>
       <c r="J8">
-        <v>0.70245000000000002</v>
+        <v>0.66935</v>
       </c>
       <c r="K8">
-        <v>0.70465</v>
+        <v>0.67664999999999997</v>
       </c>
       <c r="L8">
-        <v>0.69205000000000005</v>
+        <v>0.68445</v>
       </c>
       <c r="M8">
-        <v>0.68469999999999998</v>
+        <v>0.66654999999999998</v>
       </c>
       <c r="N8">
-        <v>0.69030000000000002</v>
+        <v>0.69874999999999998</v>
       </c>
       <c r="O8">
-        <v>0.69184999999999997</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="P8">
-        <v>0.68025000000000002</v>
+        <v>0.69174999999999998</v>
       </c>
       <c r="Q8">
-        <v>0.69440000000000002</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="R8">
-        <v>0.69059999999999999</v>
+        <v>0.70109999999999995</v>
       </c>
       <c r="S8">
-        <v>0.69035000000000002</v>
+        <v>0.68874999999999997</v>
       </c>
       <c r="T8">
-        <v>0.67674999999999996</v>
+        <v>0.69650000000000001</v>
       </c>
       <c r="U8">
-        <v>0.69545000000000001</v>
+        <v>0.7016</v>
       </c>
       <c r="V8">
-        <v>0.70025000000000004</v>
+        <v>0.69055</v>
       </c>
       <c r="W8">
-        <v>0.65644999999999998</v>
+        <v>0.72460000000000002</v>
       </c>
       <c r="X8">
-        <v>0.66820000000000002</v>
+        <v>0.66839999999999999</v>
       </c>
       <c r="Y8">
-        <v>0.68140000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="Z8">
-        <v>0.67369999999999997</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="AA8">
-        <v>0.66649999999999998</v>
+        <v>0.69464999999999999</v>
       </c>
       <c r="AB8">
-        <v>0.70089999999999997</v>
+        <v>0.65490000000000004</v>
       </c>
       <c r="AC8">
-        <v>0.69989999999999997</v>
+        <v>0.71225000000000005</v>
       </c>
       <c r="AD8">
-        <v>0.67649999999999999</v>
+        <v>0.62360000000000004</v>
       </c>
       <c r="AE8">
-        <v>0.68694999999999995</v>
+        <v>0.70604999999999996</v>
       </c>
       <c r="AF8">
-        <v>0.67774999999999996</v>
+        <v>0.64944999999999997</v>
       </c>
       <c r="AG8">
-        <v>0.68874999999999997</v>
+        <v>0.6633</v>
       </c>
       <c r="AH8">
-        <v>0.69850000000000001</v>
+        <v>0.69169999999999998</v>
       </c>
       <c r="AI8">
-        <v>0.71930000000000005</v>
+        <v>0.70955000000000001</v>
       </c>
       <c r="AJ8">
-        <v>0.69035000000000002</v>
+        <v>0.66739999999999999</v>
       </c>
       <c r="AK8">
-        <v>0.69574999999999998</v>
+        <v>0.68654999999999999</v>
       </c>
       <c r="AL8">
-        <v>0.6885</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="AM8">
-        <v>0.6744</v>
+        <v>0.70284999999999997</v>
       </c>
       <c r="AN8">
-        <v>0.67484999999999995</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="AO8">
-        <v>0.66664999999999996</v>
+        <v>0.70569999999999999</v>
       </c>
       <c r="AP8">
-        <v>0.66415000000000002</v>
+        <v>0.67945</v>
       </c>
       <c r="AQ8">
-        <v>0.69874999999999998</v>
+        <v>0.69669999999999999</v>
       </c>
       <c r="AR8">
-        <v>0.68659999999999999</v>
+        <v>0.67420000000000002</v>
       </c>
       <c r="AS8">
-        <v>0.65744999999999998</v>
+        <v>0.66479999999999995</v>
       </c>
       <c r="AT8">
-        <v>0.70415000000000005</v>
+        <v>0.68435000000000001</v>
       </c>
       <c r="AU8">
-        <v>0.66779999999999995</v>
+        <v>0.64365000000000006</v>
       </c>
       <c r="AV8">
-        <v>0.73334999999999995</v>
+        <v>0.69950000000000001</v>
       </c>
       <c r="AW8">
-        <v>0.66054999999999997</v>
+        <v>0.67525000000000002</v>
       </c>
       <c r="AX8">
-        <v>0.68505000000000005</v>
+        <v>0.69394999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.69055</v>
+        <v>0.63690000000000002</v>
       </c>
       <c r="B9">
-        <v>0.63429999999999997</v>
+        <v>0.64990000000000003</v>
       </c>
       <c r="C9">
-        <v>0.67730000000000001</v>
+        <v>0.65154999999999996</v>
       </c>
       <c r="D9">
-        <v>0.66320000000000001</v>
+        <v>0.66264999999999996</v>
       </c>
       <c r="E9">
-        <v>0.65790000000000004</v>
+        <v>0.61280000000000001</v>
       </c>
       <c r="F9">
-        <v>0.67335</v>
+        <v>0.69494999999999996</v>
       </c>
       <c r="G9">
-        <v>0.62295</v>
+        <v>0.66180000000000005</v>
       </c>
       <c r="H9">
-        <v>0.66279999999999994</v>
+        <v>0.67674999999999996</v>
       </c>
       <c r="I9">
-        <v>0.66405000000000003</v>
+        <v>0.64759999999999995</v>
       </c>
       <c r="J9">
-        <v>0.68140000000000001</v>
+        <v>0.65954999999999997</v>
       </c>
       <c r="K9">
-        <v>0.67649999999999999</v>
+        <v>0.63965000000000005</v>
       </c>
       <c r="L9">
-        <v>0.66405000000000003</v>
+        <v>0.65854999999999997</v>
       </c>
       <c r="M9">
-        <v>0.67749999999999999</v>
+        <v>0.65305000000000002</v>
       </c>
       <c r="N9">
-        <v>0.69569999999999999</v>
+        <v>0.69284999999999997</v>
       </c>
       <c r="O9">
-        <v>0.66659999999999997</v>
+        <v>0.69694999999999996</v>
       </c>
       <c r="P9">
-        <v>0.66264999999999996</v>
+        <v>0.69074999999999998</v>
       </c>
       <c r="Q9">
-        <v>0.68220000000000003</v>
+        <v>0.67369999999999997</v>
       </c>
       <c r="R9">
-        <v>0.68454999999999999</v>
+        <v>0.68694999999999995</v>
       </c>
       <c r="S9">
-        <v>0.67679999999999996</v>
+        <v>0.65054999999999996</v>
       </c>
       <c r="T9">
+        <v>0.67974999999999997</v>
+      </c>
+      <c r="U9">
+        <v>0.68205000000000005</v>
+      </c>
+      <c r="V9">
         <v>0.67395000000000005</v>
       </c>
-      <c r="U9">
-        <v>0.70515000000000005</v>
-      </c>
-      <c r="V9">
-        <v>0.68210000000000004</v>
-      </c>
       <c r="W9">
-        <v>0.63434999999999997</v>
+        <v>0.70779999999999998</v>
       </c>
       <c r="X9">
-        <v>0.65375000000000005</v>
+        <v>0.64029999999999998</v>
       </c>
       <c r="Y9">
-        <v>0.65269999999999995</v>
+        <v>0.63714999999999999</v>
       </c>
       <c r="Z9">
-        <v>0.69069999999999998</v>
+        <v>0.67195000000000005</v>
       </c>
       <c r="AA9">
-        <v>0.68140000000000001</v>
+        <v>0.67795000000000005</v>
       </c>
       <c r="AB9">
-        <v>0.69874999999999998</v>
+        <v>0.65410000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.70004999999999995</v>
+        <v>0.69540000000000002</v>
       </c>
       <c r="AD9">
-        <v>0.66669999999999996</v>
+        <v>0.60685</v>
       </c>
       <c r="AE9">
-        <v>0.68</v>
+        <v>0.69774999999999998</v>
       </c>
       <c r="AF9">
-        <v>0.67205000000000004</v>
+        <v>0.65049999999999997</v>
       </c>
       <c r="AG9">
-        <v>0.6764</v>
+        <v>0.66210000000000002</v>
       </c>
       <c r="AH9">
-        <v>0.68554999999999999</v>
+        <v>0.68074999999999997</v>
       </c>
       <c r="AI9">
-        <v>0.71535000000000004</v>
+        <v>0.66890000000000005</v>
       </c>
       <c r="AJ9">
-        <v>0.68074999999999997</v>
+        <v>0.65180000000000005</v>
       </c>
       <c r="AK9">
-        <v>0.66854999999999998</v>
+        <v>0.66764999999999997</v>
       </c>
       <c r="AL9">
-        <v>0.66685000000000005</v>
+        <v>0.67354999999999998</v>
       </c>
       <c r="AM9">
-        <v>0.67520000000000002</v>
+        <v>0.68640000000000001</v>
       </c>
       <c r="AN9">
-        <v>0.68274999999999997</v>
+        <v>0.6724</v>
       </c>
       <c r="AO9">
-        <v>0.65749999999999997</v>
+        <v>0.68445</v>
       </c>
       <c r="AP9">
-        <v>0.66134999999999999</v>
+        <v>0.68594999999999995</v>
       </c>
       <c r="AQ9">
-        <v>0.67945</v>
+        <v>0.68540000000000001</v>
       </c>
       <c r="AR9">
-        <v>0.68115000000000003</v>
+        <v>0.65910000000000002</v>
       </c>
       <c r="AS9">
-        <v>0.64315</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="AT9">
-        <v>0.70699999999999996</v>
+        <v>0.67615000000000003</v>
       </c>
       <c r="AU9">
-        <v>0.65610000000000002</v>
+        <v>0.60404999999999998</v>
       </c>
       <c r="AV9">
-        <v>0.70779999999999998</v>
+        <v>0.67669999999999997</v>
       </c>
       <c r="AW9">
-        <v>0.64859999999999995</v>
+        <v>0.66379999999999995</v>
       </c>
       <c r="AX9">
-        <v>0.66379999999999995</v>
+        <v>0.67015000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.68220000000000003</v>
+        <v>0.64080000000000004</v>
       </c>
       <c r="B10">
-        <v>0.6371</v>
+        <v>0.64829999999999999</v>
       </c>
       <c r="C10">
-        <v>0.65920000000000001</v>
+        <v>0.63790000000000002</v>
       </c>
       <c r="D10">
-        <v>0.65164999999999995</v>
+        <v>0.65095000000000003</v>
       </c>
       <c r="E10">
-        <v>0.65149999999999997</v>
+        <v>0.60894999999999999</v>
       </c>
       <c r="F10">
-        <v>0.64200000000000002</v>
+        <v>0.68594999999999995</v>
       </c>
       <c r="G10">
-        <v>0.61980000000000002</v>
+        <v>0.66310000000000002</v>
       </c>
       <c r="H10">
-        <v>0.65325</v>
+        <v>0.66635</v>
       </c>
       <c r="I10">
-        <v>0.67284999999999995</v>
+        <v>0.63675000000000004</v>
       </c>
       <c r="J10">
-        <v>0.67835000000000001</v>
+        <v>0.65644999999999998</v>
       </c>
       <c r="K10">
-        <v>0.66469999999999996</v>
+        <v>0.62434999999999996</v>
       </c>
       <c r="L10">
-        <v>0.66685000000000005</v>
+        <v>0.64985000000000004</v>
       </c>
       <c r="M10">
-        <v>0.64910000000000001</v>
+        <v>0.64675000000000005</v>
       </c>
       <c r="N10">
-        <v>0.68610000000000004</v>
+        <v>0.69340000000000002</v>
       </c>
       <c r="O10">
-        <v>0.66595000000000004</v>
+        <v>0.70365</v>
       </c>
       <c r="P10">
-        <v>0.65954999999999997</v>
+        <v>0.68135000000000001</v>
       </c>
       <c r="Q10">
-        <v>0.65734999999999999</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="R10">
-        <v>0.64870000000000005</v>
+        <v>0.69169999999999998</v>
       </c>
       <c r="S10">
-        <v>0.66720000000000002</v>
+        <v>0.64180000000000004</v>
       </c>
       <c r="T10">
-        <v>0.66949999999999998</v>
+        <v>0.66005000000000003</v>
       </c>
       <c r="U10">
-        <v>0.70599999999999996</v>
+        <v>0.67310000000000003</v>
       </c>
       <c r="V10">
-        <v>0.66310000000000002</v>
+        <v>0.63965000000000005</v>
       </c>
       <c r="W10">
-        <v>0.62234999999999996</v>
+        <v>0.69840000000000002</v>
       </c>
       <c r="X10">
-        <v>0.62649999999999995</v>
+        <v>0.61839999999999995</v>
       </c>
       <c r="Y10">
-        <v>0.64895000000000003</v>
+        <v>0.61929999999999996</v>
       </c>
       <c r="Z10">
-        <v>0.67295000000000005</v>
+        <v>0.68079999999999996</v>
       </c>
       <c r="AA10">
-        <v>0.65939999999999999</v>
+        <v>0.67135</v>
       </c>
       <c r="AB10">
-        <v>0.69399999999999995</v>
+        <v>0.63619999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.69994999999999996</v>
+        <v>0.66995000000000005</v>
       </c>
       <c r="AD10">
-        <v>0.64859999999999995</v>
+        <v>0.59414999999999996</v>
       </c>
       <c r="AE10">
-        <v>0.67179999999999995</v>
+        <v>0.66920000000000002</v>
       </c>
       <c r="AF10">
-        <v>0.67600000000000005</v>
+        <v>0.63875000000000004</v>
       </c>
       <c r="AG10">
-        <v>0.66839999999999999</v>
+        <v>0.65774999999999995</v>
       </c>
       <c r="AH10">
-        <v>0.6754</v>
+        <v>0.66325000000000001</v>
       </c>
       <c r="AI10">
-        <v>0.69394999999999996</v>
+        <v>0.67405000000000004</v>
       </c>
       <c r="AJ10">
+        <v>0.64105000000000001</v>
+      </c>
+      <c r="AK10">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="AL10">
+        <v>0.64529999999999998</v>
+      </c>
+      <c r="AM10">
+        <v>0.66154999999999997</v>
+      </c>
+      <c r="AN10">
         <v>0.65544999999999998</v>
       </c>
-      <c r="AK10">
-        <v>0.65725</v>
-      </c>
-      <c r="AL10">
-        <v>0.63924999999999998</v>
-      </c>
-      <c r="AM10">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="AN10">
-        <v>0.65820000000000001</v>
-      </c>
       <c r="AO10">
-        <v>0.63859999999999995</v>
+        <v>0.65885000000000005</v>
       </c>
       <c r="AP10">
-        <v>0.65339999999999998</v>
+        <v>0.68140000000000001</v>
       </c>
       <c r="AQ10">
-        <v>0.68125000000000002</v>
+        <v>0.67110000000000003</v>
       </c>
       <c r="AR10">
-        <v>0.66464999999999996</v>
+        <v>0.64344999999999997</v>
       </c>
       <c r="AS10">
-        <v>0.64664999999999995</v>
+        <v>0.64734999999999998</v>
       </c>
       <c r="AT10">
-        <v>0.68200000000000005</v>
+        <v>0.65869999999999995</v>
       </c>
       <c r="AU10">
-        <v>0.6381</v>
+        <v>0.59014999999999995</v>
       </c>
       <c r="AV10">
-        <v>0.71924999999999994</v>
+        <v>0.67559999999999998</v>
       </c>
       <c r="AW10">
-        <v>0.64054999999999995</v>
+        <v>0.66339999999999999</v>
       </c>
       <c r="AX10">
-        <v>0.66884999999999994</v>
+        <v>0.67530000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.66739999999999999</v>
+        <v>0.62275000000000003</v>
       </c>
       <c r="B11">
-        <v>0.62334999999999996</v>
+        <v>0.61929999999999996</v>
       </c>
       <c r="C11">
-        <v>0.64449999999999996</v>
+        <v>0.63009999999999999</v>
       </c>
       <c r="D11">
-        <v>0.65764999999999996</v>
+        <v>0.64739999999999998</v>
       </c>
       <c r="E11">
-        <v>0.65459999999999996</v>
+        <v>0.60489999999999999</v>
       </c>
       <c r="F11">
-        <v>0.62685000000000002</v>
+        <v>0.67764999999999997</v>
       </c>
       <c r="G11">
-        <v>0.60740000000000005</v>
+        <v>0.65885000000000005</v>
       </c>
       <c r="H11">
-        <v>0.64415</v>
+        <v>0.6643</v>
       </c>
       <c r="I11">
-        <v>0.64795000000000003</v>
+        <v>0.64349999999999996</v>
       </c>
       <c r="J11">
-        <v>0.64864999999999995</v>
+        <v>0.64639999999999997</v>
       </c>
       <c r="K11">
-        <v>0.67174999999999996</v>
+        <v>0.61334999999999995</v>
       </c>
       <c r="L11">
-        <v>0.65720000000000001</v>
+        <v>0.63705000000000001</v>
       </c>
       <c r="M11">
-        <v>0.64749999999999996</v>
+        <v>0.63734999999999997</v>
       </c>
       <c r="N11">
-        <v>0.68420000000000003</v>
+        <v>0.69305000000000005</v>
       </c>
       <c r="O11">
-        <v>0.65344999999999998</v>
+        <v>0.68994999999999995</v>
       </c>
       <c r="P11">
-        <v>0.6462</v>
+        <v>0.66459999999999997</v>
       </c>
       <c r="Q11">
-        <v>0.67264999999999997</v>
+        <v>0.63895000000000002</v>
       </c>
       <c r="R11">
-        <v>0.65429999999999999</v>
+        <v>0.68730000000000002</v>
       </c>
       <c r="S11">
-        <v>0.64415</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="T11">
-        <v>0.63414999999999999</v>
+        <v>0.65669999999999995</v>
       </c>
       <c r="U11">
-        <v>0.69515000000000005</v>
+        <v>0.66410000000000002</v>
       </c>
       <c r="V11">
-        <v>0.65759999999999996</v>
+        <v>0.62595000000000001</v>
       </c>
       <c r="W11">
-        <v>0.61124999999999996</v>
+        <v>0.70309999999999995</v>
       </c>
       <c r="X11">
-        <v>0.61899999999999999</v>
+        <v>0.61680000000000001</v>
       </c>
       <c r="Y11">
-        <v>0.65769999999999995</v>
+        <v>0.63290000000000002</v>
       </c>
       <c r="Z11">
-        <v>0.65774999999999995</v>
+        <v>0.65185000000000004</v>
       </c>
       <c r="AA11">
-        <v>0.64885000000000004</v>
+        <v>0.65415000000000001</v>
       </c>
       <c r="AB11">
-        <v>0.67654999999999998</v>
+        <v>0.63460000000000005</v>
       </c>
       <c r="AC11">
-        <v>0.67049999999999998</v>
+        <v>0.64870000000000005</v>
       </c>
       <c r="AD11">
-        <v>0.6452</v>
+        <v>0.59025000000000005</v>
       </c>
       <c r="AE11">
-        <v>0.66410000000000002</v>
+        <v>0.66710000000000003</v>
       </c>
       <c r="AF11">
-        <v>0.66910000000000003</v>
+        <v>0.62555000000000005</v>
       </c>
       <c r="AG11">
-        <v>0.66205000000000003</v>
+        <v>0.64890000000000003</v>
       </c>
       <c r="AH11">
-        <v>0.66315000000000002</v>
+        <v>0.65849999999999997</v>
       </c>
       <c r="AI11">
-        <v>0.66749999999999998</v>
+        <v>0.67825000000000002</v>
       </c>
       <c r="AJ11">
-        <v>0.67120000000000002</v>
+        <v>0.63819999999999999</v>
       </c>
       <c r="AK11">
-        <v>0.64370000000000005</v>
+        <v>0.67244999999999999</v>
       </c>
       <c r="AL11">
-        <v>0.64154999999999995</v>
+        <v>0.62450000000000006</v>
       </c>
       <c r="AM11">
-        <v>0.63649999999999995</v>
+        <v>0.66085000000000005</v>
       </c>
       <c r="AN11">
-        <v>0.65580000000000005</v>
+        <v>0.64849999999999997</v>
       </c>
       <c r="AO11">
-        <v>0.63619999999999999</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="AP11">
-        <v>0.64780000000000004</v>
+        <v>0.66225000000000001</v>
       </c>
       <c r="AQ11">
-        <v>0.67305000000000004</v>
+        <v>0.66654999999999998</v>
       </c>
       <c r="AR11">
-        <v>0.64834999999999998</v>
+        <v>0.66635</v>
       </c>
       <c r="AS11">
-        <v>0.64495000000000002</v>
+        <v>0.64764999999999995</v>
       </c>
       <c r="AT11">
-        <v>0.67710000000000004</v>
+        <v>0.65595000000000003</v>
       </c>
       <c r="AU11">
-        <v>0.63529999999999998</v>
+        <v>0.57245000000000001</v>
       </c>
       <c r="AV11">
-        <v>0.70965</v>
+        <v>0.65964999999999996</v>
       </c>
       <c r="AW11">
-        <v>0.62009999999999998</v>
+        <v>0.65164999999999995</v>
       </c>
       <c r="AX11">
-        <v>0.68030000000000002</v>
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>

--- a/out/CE/falselink/Figori_algorithm_1.xlsx
+++ b/out/CE/falselink/Figori_algorithm_1.xlsx
@@ -25,7 +25,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +36,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -64,8 +72,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -382,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999E7315-8FE6-4472-959A-FA4F3BF8B33C}">
-  <dimension ref="A1:AX11"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AX11"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AY1" sqref="AY1:AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.86224999999999996</v>
       </c>
@@ -541,8 +552,12 @@
       <c r="AX1">
         <v>0.85509999999999997</v>
       </c>
+      <c r="AY1" s="1">
+        <f>AVERAGE(A1:AX1)</f>
+        <v>0.84968099999999991</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.83550000000000002</v>
       </c>
@@ -693,8 +708,12 @@
       <c r="AX2">
         <v>0.83875</v>
       </c>
+      <c r="AY2" s="1">
+        <f t="shared" ref="AY2:AY11" si="0">AVERAGE(A2:AX2)</f>
+        <v>0.83802299999999985</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.7923</v>
       </c>
@@ -845,8 +864,12 @@
       <c r="AX3">
         <v>0.81440000000000001</v>
       </c>
+      <c r="AY3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.81564800000000037</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.76454999999999995</v>
       </c>
@@ -997,8 +1020,12 @@
       <c r="AX4">
         <v>0.75970000000000004</v>
       </c>
+      <c r="AY4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78162100000000012</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.73109999999999997</v>
       </c>
@@ -1149,8 +1176,12 @@
       <c r="AX5">
         <v>0.74150000000000005</v>
       </c>
+      <c r="AY5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74776300000000018</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.70220000000000005</v>
       </c>
@@ -1301,8 +1332,12 @@
       <c r="AX6">
         <v>0.73114999999999997</v>
       </c>
+      <c r="AY6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71865400000000013</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.67474999999999996</v>
       </c>
@@ -1453,8 +1488,12 @@
       <c r="AX7">
         <v>0.70165</v>
       </c>
+      <c r="AY7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69516500000000003</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.66125</v>
       </c>
@@ -1605,8 +1644,12 @@
       <c r="AX8">
         <v>0.69394999999999996</v>
       </c>
+      <c r="AY8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.68127499999999996</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.63690000000000002</v>
       </c>
@@ -1757,8 +1800,12 @@
       <c r="AX9">
         <v>0.67015000000000002</v>
       </c>
+      <c r="AY9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66598499999999983</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.64080000000000004</v>
       </c>
@@ -1909,8 +1956,12 @@
       <c r="AX10">
         <v>0.67530000000000001</v>
       </c>
+      <c r="AY10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.65580099999999997</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.62275000000000003</v>
       </c>
@@ -2060,10 +2111,15 @@
       </c>
       <c r="AX11">
         <v>0.67</v>
+      </c>
+      <c r="AY11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64848300000000014</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>